--- a/data/trans_camb/P2A_ner_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_ner_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 12,04</t>
+          <t>2,45; 12,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 12,46</t>
+          <t>2,46; 11,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,87</t>
+          <t>1,24; 8,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 5,33</t>
+          <t>-4,84; 5,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 17,98</t>
+          <t>4,25; 19,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 6,59</t>
+          <t>-3,24; 6,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 6,87</t>
+          <t>-0,43; 6,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,18; 13,6</t>
+          <t>4,16; 13,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 5,84</t>
+          <t>-0,31; 5,64</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-80,11; 320,73</t>
+          <t>-74,11; 243,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,46; 916,56</t>
+          <t>38,55; 864,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,33; 308,41</t>
+          <t>-48,25; 305,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 664,38</t>
+          <t>-26,01; 643,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>82,34; 1203,96</t>
+          <t>86,4; 1159,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 542,64</t>
+          <t>-16,63; 520,53</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,97</t>
+          <t>-1,04; 2,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 3,14</t>
+          <t>-0,78; 2,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 8,09</t>
+          <t>2,49; 7,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 2,57</t>
+          <t>-2,48; 2,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 9,53</t>
+          <t>3,15; 9,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,73</t>
+          <t>-1,01; 3,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 2,06</t>
+          <t>-1,22; 2,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,63</t>
+          <t>1,93; 5,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 5,08</t>
+          <t>1,4; 5,13</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,91; 190,9</t>
+          <t>-34,12; 195,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,26; 193,85</t>
+          <t>-24,42; 184,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,69; 465,9</t>
+          <t>66,92; 466,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,5; 72,3</t>
+          <t>-40,38; 76,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,36; 255,11</t>
+          <t>50,87; 272,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,7; 101,34</t>
+          <t>-18,06; 100,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,26; 70,72</t>
+          <t>-27,53; 71,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,54; 187,34</t>
+          <t>40,15; 190,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,51; 165,24</t>
+          <t>29,16; 172,42</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,75</t>
+          <t>-2,27; 0,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,84</t>
+          <t>-0,45; 2,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,4</t>
+          <t>0,3; 4,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,75</t>
+          <t>-1,19; 2,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,49; 7,21</t>
+          <t>2,37; 7,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,95</t>
+          <t>1,16; 5,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,23</t>
+          <t>-1,21; 1,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,39</t>
+          <t>1,54; 4,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,94</t>
+          <t>1,16; 4,07</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,58; 36,32</t>
+          <t>-57,41; 31,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 134,15</t>
+          <t>-13,19; 145,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,13; 196,23</t>
+          <t>5,53; 196,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 82,61</t>
+          <t>-21,9; 81,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>42,54; 208,58</t>
+          <t>42,55; 207,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,82; 141,93</t>
+          <t>17,41; 143,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,53; 39,0</t>
+          <t>-27,34; 38,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,81; 140,03</t>
+          <t>35,08; 142,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,32; 126,72</t>
+          <t>26,08; 126,87</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,36</t>
+          <t>-3,1; 0,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,77</t>
+          <t>-1,38; 2,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 5,05</t>
+          <t>0,15; 4,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,25</t>
+          <t>-2,22; 2,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,14; 8,89</t>
+          <t>2,83; 8,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,77; 41,13</t>
+          <t>1,85; 41,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 0,76</t>
+          <t>-2,18; 0,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,08</t>
+          <t>1,5; 5,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,91; 28,27</t>
+          <t>2,1; 27,68</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-69,06; 19,19</t>
+          <t>-67,81; 21,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,61; 104,04</t>
+          <t>-28,91; 114,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,21; 189,15</t>
+          <t>1,6; 187,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,79; 60,83</t>
+          <t>-38,97; 53,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>51,41; 235,81</t>
+          <t>45,37; 223,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>32,35; 1138,89</t>
+          <t>35,84; 1060,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-43,21; 22,29</t>
+          <t>-43,8; 23,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>29,49; 149,1</t>
+          <t>29,99; 140,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>41,52; 759,96</t>
+          <t>45,48; 705,66</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,13; 3,51</t>
+          <t>0,0; 3,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,91</t>
+          <t>1,4; 5,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,33; 6,32</t>
+          <t>2,49; 6,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,46</t>
+          <t>-1,35; 2,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,19; 11,24</t>
+          <t>6,11; 11,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,77</t>
+          <t>1,08; 4,86</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 2,38</t>
+          <t>-0,21; 2,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,48</t>
+          <t>4,38; 7,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,08</t>
+          <t>2,17; 4,98</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 185,69</t>
+          <t>-0,72; 180,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>40,55; 277,59</t>
+          <t>41,84; 295,81</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>75,64; 362,28</t>
+          <t>75,7; 367,12</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 76,05</t>
+          <t>-25,61; 75,68</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>111,9; 331,14</t>
+          <t>107,43; 332,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>20,73; 145,83</t>
+          <t>17,12; 145,28</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 87,55</t>
+          <t>-5,52; 83,1</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>106,45; 268,36</t>
+          <t>103,44; 267,1</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>58,11; 179,29</t>
+          <t>49,89; 173,8</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,2</t>
+          <t>-0,5; 1,15</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,68</t>
+          <t>0,86; 2,72</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,49</t>
+          <t>2,38; 4,61</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,41</t>
+          <t>-0,7; 1,44</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,24; 7,82</t>
+          <t>5,23; 7,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,35; 14,87</t>
+          <t>2,25; 14,81</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 1,04</t>
+          <t>-0,28; 1,02</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,37; 4,97</t>
+          <t>3,43; 5,03</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,73; 10,56</t>
+          <t>2,77; 9,67</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 51,4</t>
+          <t>-16,05; 51,74</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>28,37; 114,37</t>
+          <t>25,12; 114,87</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>72,14; 187,0</t>
+          <t>73,92; 196,53</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 35,66</t>
+          <t>-13,43; 35,03</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>103,96; 193,78</t>
+          <t>102,45; 192,29</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>49,29; 344,32</t>
+          <t>46,05; 334,04</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 31,78</t>
+          <t>-7,55; 30,17</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>83,07; 147,8</t>
+          <t>86,62; 149,53</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>69,87; 286,41</t>
+          <t>73,07; 282,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_ner_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_ner_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,31</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,24</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>0,42</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 12,5</t>
+          <t>0,09; 3,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 11,81</t>
+          <t>0,34; 3,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 8,04</t>
+          <t>0,04; 3,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 5,87</t>
+          <t>-2,11; 2,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,25; 19,35</t>
+          <t>4,28; 10,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 6,33</t>
+          <t>-3,33; 0,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 6,89</t>
+          <t>-0,57; 2,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,16; 13,51</t>
+          <t>2,76; 6,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 5,64</t>
+          <t>-0,87; 1,9</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>85,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,36%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>220,34%</t>
+          <t>146,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>38,18%</t>
+          <t>-22,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>129,21%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>356,34%</t>
+          <t>130,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>122,94%</t>
+          <t>12,34%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 278,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,34; 290,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,15; 307,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-74,11; 243,46</t>
+          <t>-36,52; 61,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,55; 864,22</t>
+          <t>71,94; 271,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,25; 305,35</t>
+          <t>-54,16; 26,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,01; 643,72</t>
+          <t>-14,23; 92,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,4; 1159,66</t>
+          <t>66,31; 230,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 520,53</t>
+          <t>-22,22; 71,38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>-0,32</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,98</t>
+          <t>-2,37; 0,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 2,91</t>
+          <t>-0,62; 2,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 7,96</t>
+          <t>-2,7; 0,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,77</t>
+          <t>-1,39; 2,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 9,72</t>
+          <t>2,29; 6,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 3,77</t>
+          <t>-1,38; 2,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 2,12</t>
+          <t>-1,39; 1,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,72</t>
+          <t>1,42; 4,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,13</t>
+          <t>-1,81; 0,92</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>37,79%</t>
+          <t>-27,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>40,48%</t>
+          <t>33,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>205,93%</t>
+          <t>-25,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>132,39%</t>
+          <t>99,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>-2,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>101,76%</t>
+          <t>73,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>86,2%</t>
+          <t>-8,17%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,12; 195,58</t>
+          <t>-59,0; 25,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,42; 184,73</t>
+          <t>-16,45; 136,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>66,92; 466,8</t>
+          <t>-66,83; 30,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,38; 76,45</t>
+          <t>-24,41; 77,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,87; 272,89</t>
+          <t>39,63; 198,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,06; 100,03</t>
+          <t>-24,37; 61,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,53; 71,31</t>
+          <t>-30,56; 32,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,15; 190,84</t>
+          <t>29,57; 131,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,16; 172,42</t>
+          <t>-40,84; 27,79</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>20,97</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>11,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 0,62</t>
+          <t>-3,1; 0,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,93</t>
+          <t>-1,38; 2,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 4,24</t>
+          <t>-1,98; 1,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 2,76</t>
+          <t>-2,22; 2,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,08</t>
+          <t>2,83; 8,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,13</t>
+          <t>-0,45; 56,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,19</t>
+          <t>-2,18; 0,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,43</t>
+          <t>1,5; 5,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,07</t>
+          <t>-0,42; 40,09</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-24,37%</t>
+          <t>-37,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>39,17%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>76,15%</t>
+          <t>-4,95%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>-2,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>104,84%</t>
+          <t>117,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>67,66%</t>
+          <t>439,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>-16,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>79,4%</t>
+          <t>77,57%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>71,22%</t>
+          <t>286,35%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,41; 31,09</t>
+          <t>-67,81; 21,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,19; 145,36</t>
+          <t>-28,91; 114,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,53; 196,01</t>
+          <t>-45,77; 67,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 81,96</t>
+          <t>-38,97; 53,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>42,55; 207,69</t>
+          <t>45,37; 223,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,41; 143,87</t>
+          <t>-9,18; 1478,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,34; 38,11</t>
+          <t>-43,8; 23,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35,08; 142,61</t>
+          <t>29,99; 140,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,08; 126,87</t>
+          <t>-10,22; 1016,3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,34</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,96</t>
+          <t>0,76</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 0,49</t>
+          <t>0,0; 3,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 2,89</t>
+          <t>1,4; 5,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 4,95</t>
+          <t>0,03; 3,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,05</t>
+          <t>-1,35; 2,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,83; 8,47</t>
+          <t>6,11; 11,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,85; 41,68</t>
+          <t>-1,68; 1,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 0,73</t>
+          <t>-0,21; 2,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,07</t>
+          <t>4,38; 7,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,1; 27,68</t>
+          <t>-0,5; 2,0</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-37,07%</t>
+          <t>67,79%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>126,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>67,07%</t>
+          <t>62,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,04%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>117,42%</t>
+          <t>199,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>300,3%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-16,7%</t>
+          <t>32,34%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>77,57%</t>
+          <t>174,76%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>214,65%</t>
+          <t>22,6%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-67,81; 21,01</t>
+          <t>-0,72; 180,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,91; 114,07</t>
+          <t>41,84; 295,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,6; 187,66</t>
+          <t>-0,4; 206,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-38,97; 53,96</t>
+          <t>-25,61; 75,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>45,37; 223,34</t>
+          <t>107,43; 332,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,84; 1060,61</t>
+          <t>-31,17; 51,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-43,8; 23,32</t>
+          <t>-5,52; 83,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>29,99; 140,62</t>
+          <t>103,44; 267,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>45,48; 705,66</t>
+          <t>-13,14; 68,4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>8,44</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,9</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>2,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,3</t>
+          <t>-0,53; 1,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,17</t>
+          <t>0,8; 2,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,5</t>
+          <t>-0,42; 1,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,46</t>
+          <t>-0,71; 1,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,11; 11,13</t>
+          <t>5,19; 7,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,86</t>
+          <t>-0,36; 21,68</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,33</t>
+          <t>-0,32; 0,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,38; 7,65</t>
+          <t>3,38; 5,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,98</t>
+          <t>0,05; 12,42</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>67,79%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>126,4%</t>
+          <t>62,63%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>178,58%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>199,0%</t>
+          <t>140,44%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>69,22%</t>
+          <t>113,66%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>32,34%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>174,76%</t>
+          <t>112,21%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>106,77%</t>
+          <t>79,97%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 180,55</t>
+          <t>-17,06; 48,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>41,84; 295,81</t>
+          <t>23,91; 110,49</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>75,7; 367,12</t>
+          <t>-13,61; 59,37</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 75,68</t>
+          <t>-14,37; 33,57</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>107,43; 332,82</t>
+          <t>101,58; 191,26</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>17,12; 145,28</t>
+          <t>-7,53; 540,21</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 83,1</t>
+          <t>-8,16; 29,03</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>103,44; 267,1</t>
+          <t>84,69; 146,99</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>49,89; 173,8</t>
+          <t>1,24; 358,16</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3,4</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>6,47</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>5,27</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>4,18</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>4,44</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 1,15</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,86; 2,72</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 4,61</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,7; 1,44</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>5,23; 7,78</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>2,25; 14,81</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,28; 1,02</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>3,43; 5,03</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>2,77; 9,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>12,03%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>64,64%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>124,04%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>8,4%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>142,24%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>115,88%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>9,82%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>114,19%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>121,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-16,05; 51,74</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>25,12; 114,87</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>73,92; 196,53</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-13,43; 35,03</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>102,45; 192,29</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>46,05; 334,04</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-7,55; 30,17</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>86,62; 149,53</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>73,07; 282,98</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P2A_ner_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_ner_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 3,77</t>
+          <t>0,12; 3,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,98</t>
+          <t>0,27; 3,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,87</t>
+          <t>0,24; 3,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 2,25</t>
+          <t>-1,92; 2,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 10,17</t>
+          <t>4,22; 10,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 0,94</t>
+          <t>-3,4; 0,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,44</t>
+          <t>-0,55; 2,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,36</t>
+          <t>2,76; 6,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,9</t>
+          <t>-0,99; 1,73</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 278,07</t>
+          <t>1,82; 300,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 290,29</t>
+          <t>2,09; 292,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 307,4</t>
+          <t>7,23; 314,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,52; 61,83</t>
+          <t>-33,21; 70,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>71,94; 271,42</t>
+          <t>72,16; 287,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,16; 26,14</t>
+          <t>-53,27; 17,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 92,51</t>
+          <t>-13,73; 86,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>66,31; 230,94</t>
+          <t>60,17; 218,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-22,22; 71,38</t>
+          <t>-24,76; 64,23</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 0,54</t>
+          <t>-2,36; 0,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 2,82</t>
+          <t>-0,56; 2,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,73</t>
+          <t>-2,45; 0,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,63</t>
+          <t>-1,72; 2,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,92</t>
+          <t>2,3; 7,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 2,24</t>
+          <t>-1,51; 2,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,05</t>
+          <t>-1,29; 1,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,3</t>
+          <t>1,39; 4,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 0,92</t>
+          <t>-1,65; 0,97</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-59,0; 25,06</t>
+          <t>-58,57; 31,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 136,06</t>
+          <t>-16,99; 129,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-66,83; 30,41</t>
+          <t>-62,91; 34,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 77,44</t>
+          <t>-29,77; 69,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,63; 198,31</t>
+          <t>38,16; 185,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,37; 61,8</t>
+          <t>-25,55; 65,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,56; 32,87</t>
+          <t>-29,14; 42,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,57; 131,75</t>
+          <t>30,95; 136,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-40,84; 27,79</t>
+          <t>-37,84; 29,04</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 0,49</t>
+          <t>-3,2; 0,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 2,89</t>
+          <t>-1,26; 2,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,76</t>
+          <t>-2,12; 1,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,05</t>
+          <t>-2,49; 1,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,83; 8,47</t>
+          <t>2,98; 8,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 56,46</t>
+          <t>-0,59; 53,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 0,73</t>
+          <t>-2,04; 0,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,07</t>
+          <t>1,53; 4,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 40,09</t>
+          <t>-0,47; 38,76</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-67,81; 21,01</t>
+          <t>-69,86; 24,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,91; 114,07</t>
+          <t>-28,04; 106,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-45,77; 67,7</t>
+          <t>-46,97; 70,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,97; 53,96</t>
+          <t>-40,81; 52,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>45,37; 223,34</t>
+          <t>50,5; 223,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 1478,75</t>
+          <t>-11,71; 1508,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,8; 23,32</t>
+          <t>-41,72; 19,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,99; 140,62</t>
+          <t>28,0; 141,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 1016,3</t>
+          <t>-9,98; 1229,39</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,3</t>
+          <t>0,08; 3,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,17</t>
+          <t>1,31; 4,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,03; 3,69</t>
+          <t>-0,07; 3,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,46</t>
+          <t>-1,42; 2,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,11; 11,13</t>
+          <t>6,01; 11,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,64</t>
+          <t>-1,63; 1,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,33</t>
+          <t>-0,05; 2,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,38; 7,65</t>
+          <t>4,2; 7,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,0</t>
+          <t>-0,45; 1,99</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 180,55</t>
+          <t>-0,32; 189,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>41,84; 295,81</t>
+          <t>36,0; 268,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 206,02</t>
+          <t>-5,36; 183,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 75,68</t>
+          <t>-27,67; 68,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>107,43; 332,82</t>
+          <t>108,94; 307,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,17; 51,45</t>
+          <t>-31,45; 44,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 83,1</t>
+          <t>-3,68; 87,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>103,44; 267,1</t>
+          <t>105,55; 266,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 68,4</t>
+          <t>-10,75; 69,88</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,13</t>
+          <t>-0,55; 1,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,68</t>
+          <t>0,82; 2,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,43</t>
+          <t>-0,51; 1,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,4</t>
+          <t>-0,6; 1,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,19; 7,78</t>
+          <t>5,17; 7,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 21,68</t>
+          <t>-0,25; 22,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 0,98</t>
+          <t>-0,39; 0,97</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,0</t>
+          <t>3,26; 4,94</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,05; 12,42</t>
+          <t>-0,01; 12,78</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 48,67</t>
+          <t>-17,69; 46,48</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>23,91; 110,49</t>
+          <t>24,92; 113,86</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 59,37</t>
+          <t>-16,08; 63,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 33,57</t>
+          <t>-12,0; 34,39</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>101,58; 191,26</t>
+          <t>100,0; 189,91</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 540,21</t>
+          <t>-5,12; 516,71</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 29,03</t>
+          <t>-9,97; 27,58</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>84,69; 146,99</t>
+          <t>79,92; 143,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,24; 358,16</t>
+          <t>-0,52; 356,2</t>
         </is>
       </c>
     </row>
